--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Layoputs/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Layoputs/Layout_Battle_01.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prefabUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +84,14 @@
   </si>
   <si>
     <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models/Dragon/Prefabs/micro_dragon.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models/villarger_B_Boy/Prefabs/Villager_B_Boy.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,7 +475,7 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -483,16 +483,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -503,13 +503,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -517,46 +517,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -14,13 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,7 +463,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,83 +476,83 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,66 @@
   </si>
   <si>
     <t>Models/villarger_B_Boy/Prefabs/Villager_B_Boy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animIdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animDead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_take_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animBorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登场动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_land_on_ground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,10 +531,13 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,10 +551,25 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,10 +583,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,10 +615,25 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -537,10 +645,25 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -551,7 +674,12 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,94 +60,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Micro Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>hudOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models/Dragon/Prefabs/micro_dragon.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models/villarger_B_Boy/Prefabs/Villager_B_Boy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animIdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animDead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_take_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animBorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登场动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_land_on_ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attackstandy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawDagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elevator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Villager_B_Boy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro Dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>hudOffset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Models/Dragon/Prefabs/micro_dragon.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Models/villarger_B_Boy/Prefabs/Villager_B_Boy.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animIdle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animDead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animRun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_take_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animBorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜利动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_laugh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行走动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登场动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_land_on_ground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,24 +552,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,28 +580,31 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -598,10 +633,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,72 +653,91 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>micro_dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +176,30 @@
   </si>
   <si>
     <t>Villager_B_Boy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,110,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,110,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_hit_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,10 +586,11 @@
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -583,28 +604,31 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -636,10 +660,13 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -653,91 +680,100 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>0.6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,67 @@
   </si>
   <si>
     <t>animHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_rise_from_floor</t>
+  </si>
+  <si>
+    <t>ghost_idle_hover</t>
+  </si>
+  <si>
+    <t>ghost_idle_back_and_forth</t>
+  </si>
+  <si>
+    <t>ghost_sleeping</t>
+  </si>
+  <si>
+    <t>ghost_laugh</t>
+  </si>
+  <si>
+    <t>ghost_hit_front</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf_getup</t>
+  </si>
+  <si>
+    <t>wolf_idle1</t>
+  </si>
+  <si>
+    <t>wolf_walk</t>
+  </si>
+  <si>
+    <t>wolf_die</t>
+  </si>
+  <si>
+    <t>wolf_laugh</t>
+  </si>
+  <si>
+    <t>Models/Werewolf/Prefabs/micro_werewolf.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models/Ghost/Prefabs/micro_ghost.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wolf_hit_front</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,9 +644,11 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -706,74 +769,146 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Avatar.xlsx
+++ b/Excel/Avatar.xlsx
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elevator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Villager_B_Boy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,6 +257,10 @@
   </si>
   <si>
     <t>wolf_hit_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GangnamStyle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +636,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -648,7 +648,7 @@
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -761,7 +761,7 @@
         <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>8</v>
@@ -769,14 +769,14 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>1.2</v>
@@ -794,10 +794,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>0.6</v>
@@ -833,7 +833,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>15</v>
@@ -841,74 +841,74 @@
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>0.6</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>0.6</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
